--- a/analyse similarite questionnaire/Data/data.xlsx
+++ b/analyse similarite questionnaire/Data/data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccavel\Documents\GitHub\ExploreMars\analyse similarite questionnaire\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>Groupe</t>
   </si>
@@ -158,13 +163,16 @@
   </si>
   <si>
     <t>Stressant</t>
+  </si>
+  <si>
+    <t>MoyEcartCroix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +187,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +207,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,20 +222,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,31 +543,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +610,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -608,8 +657,11 @@
       <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>79.779436169999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -652,8 +704,11 @@
       <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>49.651366879999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -696,8 +751,11 @@
       <c r="N4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>78.499374689999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -740,8 +798,11 @@
       <c r="N5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="3">
+        <v>85.781439349999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -784,8 +845,11 @@
       <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="3">
+        <v>81.391481799999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -828,8 +892,11 @@
       <c r="N7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="3">
+        <v>84.845049079999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -872,8 +939,11 @@
       <c r="N8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="3">
+        <v>115.8880276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16</v>
       </c>
@@ -916,8 +986,11 @@
       <c r="N9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>201.07799080000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>17</v>
       </c>
@@ -960,8 +1033,11 @@
       <c r="N10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="3">
+        <v>68.7367931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -1004,8 +1080,11 @@
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="3">
+        <v>114.00354590000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19</v>
       </c>
@@ -1048,8 +1127,11 @@
       <c r="N12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="3">
+        <v>84.345572849999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -1092,8 +1174,11 @@
       <c r="N13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="3">
+        <v>107.1971369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>21</v>
       </c>
@@ -1136,8 +1221,11 @@
       <c r="N14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="4">
+        <v>122.54754939999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -1180,8 +1268,11 @@
       <c r="N15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="4">
+        <v>75.090021759999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1224,8 +1315,11 @@
       <c r="N16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="4">
+        <v>148.4529354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1268,8 +1362,11 @@
       <c r="N17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="4">
+        <v>102.001665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -1312,8 +1409,11 @@
       <c r="N18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="4">
+        <v>80.482253630000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -1356,8 +1456,11 @@
       <c r="N19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="4">
+        <v>51.890698440000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1400,8 +1503,11 @@
       <c r="N20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="4">
+        <v>59.928413310000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -1444,8 +1550,11 @@
       <c r="N21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="4">
+        <v>67.245249259999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32</v>
       </c>
@@ -1488,8 +1597,11 @@
       <c r="N22" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="4">
+        <v>104.7883253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>33</v>
       </c>
@@ -1533,7 +1645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>34</v>
       </c>
@@ -1577,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35</v>
       </c>
@@ -1621,7 +1733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>36</v>
       </c>
@@ -1665,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>39</v>
       </c>
@@ -1709,7 +1821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>40</v>
       </c>
@@ -1753,7 +1865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>41</v>
       </c>
@@ -1797,7 +1909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1813,7 +1925,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1829,7 +1941,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1872,8 +1984,11 @@
       <c r="N32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="5">
+        <v>103.144457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1916,8 +2031,11 @@
       <c r="N33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="5">
+        <v>162.07233969999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1960,8 +2078,11 @@
       <c r="N34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="5">
+        <v>238.2954786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -2004,8 +2125,11 @@
       <c r="N35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="5">
+        <v>304.71887959999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -2048,8 +2172,11 @@
       <c r="N36" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="5">
+        <v>94.006291970000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13</v>
       </c>
@@ -2092,8 +2219,11 @@
       <c r="N37" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="5">
+        <v>138.93874149999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2136,8 +2266,11 @@
       <c r="N38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="5">
+        <v>179.3128959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>27</v>
       </c>
@@ -2180,8 +2313,11 @@
       <c r="N39" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="6">
+        <v>176.13279080000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2230,5 +2366,6 @@
     <mergeCell ref="A30:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>